--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lpl-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lpl-Vldlr.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.480748</v>
+        <v>34.71251733333333</v>
       </c>
       <c r="H2">
-        <v>139.442244</v>
+        <v>104.137552</v>
       </c>
       <c r="I2">
-        <v>0.1473944418036111</v>
+        <v>0.111750244749681</v>
       </c>
       <c r="J2">
-        <v>0.1473944418036111</v>
+        <v>0.111750244749681</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1112246666666667</v>
+        <v>0.1528053333333333</v>
       </c>
       <c r="N2">
-        <v>0.333674</v>
+        <v>0.458416</v>
       </c>
       <c r="O2">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="P2">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="Q2">
-        <v>5.169805702717333</v>
+        <v>5.304257781959111</v>
       </c>
       <c r="R2">
-        <v>46.52825132445599</v>
+        <v>47.738320037632</v>
       </c>
       <c r="S2">
-        <v>0.001180240379053334</v>
+        <v>0.001233089319516454</v>
       </c>
       <c r="T2">
-        <v>0.001180240379053334</v>
+        <v>0.001233089319516454</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.480748</v>
+        <v>34.71251733333333</v>
       </c>
       <c r="H3">
-        <v>139.442244</v>
+        <v>104.137552</v>
       </c>
       <c r="I3">
-        <v>0.1473944418036111</v>
+        <v>0.111750244749681</v>
       </c>
       <c r="J3">
-        <v>0.1473944418036111</v>
+        <v>0.111750244749681</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>35.475684</v>
       </c>
       <c r="O3">
-        <v>0.851329675722</v>
+        <v>0.8539197603380489</v>
       </c>
       <c r="P3">
-        <v>0.8513296757219999</v>
+        <v>0.8539197603380488</v>
       </c>
       <c r="Q3">
-        <v>549.645442710544</v>
+        <v>410.4834319206187</v>
       </c>
       <c r="R3">
-        <v>4946.808984394896</v>
+        <v>3694.350887285568</v>
       </c>
       <c r="S3">
-        <v>0.1254812623438935</v>
+        <v>0.09542574221436594</v>
       </c>
       <c r="T3">
-        <v>0.1254812623438935</v>
+        <v>0.09542574221436592</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.480748</v>
+        <v>34.71251733333333</v>
       </c>
       <c r="H4">
-        <v>139.442244</v>
+        <v>104.137552</v>
       </c>
       <c r="I4">
-        <v>0.1473944418036111</v>
+        <v>0.111750244749681</v>
       </c>
       <c r="J4">
-        <v>0.1473944418036111</v>
+        <v>0.111750244749681</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.915914</v>
+        <v>1.712948333333333</v>
       </c>
       <c r="N4">
-        <v>5.747742000000001</v>
+        <v>5.138845</v>
       </c>
       <c r="O4">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="P4">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="Q4">
-        <v>89.053115823672</v>
+        <v>59.46074871193778</v>
       </c>
       <c r="R4">
-        <v>801.478042413048</v>
+        <v>535.14673840744</v>
       </c>
       <c r="S4">
-        <v>0.02033037394816728</v>
+        <v>0.01382293568320158</v>
       </c>
       <c r="T4">
-        <v>0.02033037394816728</v>
+        <v>0.01382293568320157</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.480748</v>
+        <v>34.71251733333333</v>
       </c>
       <c r="H5">
-        <v>139.442244</v>
+        <v>104.137552</v>
       </c>
       <c r="I5">
-        <v>0.1473944418036111</v>
+        <v>0.111750244749681</v>
       </c>
       <c r="J5">
-        <v>0.1473944418036111</v>
+        <v>0.111750244749681</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.03793733333333333</v>
+        <v>0.1571906666666667</v>
       </c>
       <c r="N5">
-        <v>0.113812</v>
+        <v>0.471572</v>
       </c>
       <c r="O5">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="P5">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="Q5">
-        <v>1.763355630458666</v>
+        <v>5.456483741304889</v>
       </c>
       <c r="R5">
-        <v>15.870200674128</v>
+        <v>49.108353671744</v>
       </c>
       <c r="S5">
-        <v>0.0004025651324970422</v>
+        <v>0.001268477532597059</v>
       </c>
       <c r="T5">
-        <v>0.0004025651324970422</v>
+        <v>0.001268477532597059</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,43 +788,43 @@
         <v>192.830597</v>
       </c>
       <c r="H6">
-        <v>578.491791</v>
+        <v>578.4917909999999</v>
       </c>
       <c r="I6">
-        <v>0.6114823756165045</v>
+        <v>0.620780861354714</v>
       </c>
       <c r="J6">
-        <v>0.6114823756165045</v>
+        <v>0.6207808613547139</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1112246666666667</v>
+        <v>0.1528053333333333</v>
       </c>
       <c r="N6">
-        <v>0.333674</v>
+        <v>0.458416</v>
       </c>
       <c r="O6">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="P6">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="Q6">
-        <v>21.44751887445933</v>
+        <v>29.46554365145066</v>
       </c>
       <c r="R6">
-        <v>193.027669870134</v>
+        <v>265.1898928630559</v>
       </c>
       <c r="S6">
-        <v>0.004896359604547687</v>
+        <v>0.006849902222687594</v>
       </c>
       <c r="T6">
-        <v>0.004896359604547687</v>
+        <v>0.006849902222687592</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>192.830597</v>
       </c>
       <c r="H7">
-        <v>578.491791</v>
+        <v>578.4917909999999</v>
       </c>
       <c r="I7">
-        <v>0.6114823756165045</v>
+        <v>0.620780861354714</v>
       </c>
       <c r="J7">
-        <v>0.6114823756165045</v>
+        <v>0.6207808613547139</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>35.475684</v>
       </c>
       <c r="O7">
-        <v>0.851329675722</v>
+        <v>0.8539197603380489</v>
       </c>
       <c r="P7">
-        <v>0.8513296757219999</v>
+        <v>0.8539197603380488</v>
       </c>
       <c r="Q7">
         <v>2280.265774901116</v>
       </c>
       <c r="R7">
-        <v>20522.39197411005</v>
+        <v>20522.39197411004</v>
       </c>
       <c r="S7">
-        <v>0.5205730925433171</v>
+        <v>0.530097044350465</v>
       </c>
       <c r="T7">
-        <v>0.520573092543317</v>
+        <v>0.5300970443504648</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>192.830597</v>
       </c>
       <c r="H8">
-        <v>578.491791</v>
+        <v>578.4917909999999</v>
       </c>
       <c r="I8">
-        <v>0.6114823756165045</v>
+        <v>0.620780861354714</v>
       </c>
       <c r="J8">
-        <v>0.6114823756165045</v>
+        <v>0.6207808613547139</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.915914</v>
+        <v>1.712948333333333</v>
       </c>
       <c r="N8">
-        <v>5.747742000000001</v>
+        <v>5.138845</v>
       </c>
       <c r="O8">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="P8">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="Q8">
-        <v>369.446840420658</v>
+        <v>330.3088497468216</v>
       </c>
       <c r="R8">
-        <v>3325.021563785922</v>
+        <v>2972.779647721395</v>
       </c>
       <c r="S8">
-        <v>0.0843428368592163</v>
+        <v>0.07678742842210357</v>
       </c>
       <c r="T8">
-        <v>0.0843428368592163</v>
+        <v>0.07678742842210355</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,43 +974,43 @@
         <v>192.830597</v>
       </c>
       <c r="H9">
-        <v>578.491791</v>
+        <v>578.4917909999999</v>
       </c>
       <c r="I9">
-        <v>0.6114823756165045</v>
+        <v>0.620780861354714</v>
       </c>
       <c r="J9">
-        <v>0.6114823756165045</v>
+        <v>0.6207808613547139</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.03793733333333333</v>
+        <v>0.1571906666666667</v>
       </c>
       <c r="N9">
-        <v>0.113812</v>
+        <v>0.471572</v>
       </c>
       <c r="O9">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="P9">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="Q9">
-        <v>7.315478635254666</v>
+        <v>30.31117009616133</v>
       </c>
       <c r="R9">
-        <v>65.83930771729199</v>
+        <v>272.8005308654519</v>
       </c>
       <c r="S9">
-        <v>0.001670086609423513</v>
+        <v>0.00704648635945786</v>
       </c>
       <c r="T9">
-        <v>0.001670086609423513</v>
+        <v>0.007046486359457858</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.00705666666667</v>
+        <v>19.96051866666667</v>
       </c>
       <c r="H10">
-        <v>48.02117</v>
+        <v>59.881556</v>
       </c>
       <c r="I10">
-        <v>0.05075975073168155</v>
+        <v>0.06425903442584988</v>
       </c>
       <c r="J10">
-        <v>0.05075975073168155</v>
+        <v>0.06425903442584986</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1112246666666667</v>
+        <v>0.1528053333333333</v>
       </c>
       <c r="N10">
-        <v>0.333674</v>
+        <v>0.458416</v>
       </c>
       <c r="O10">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="P10">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="Q10">
-        <v>1.780379542064444</v>
+        <v>3.050073708366222</v>
       </c>
       <c r="R10">
-        <v>16.02341587858</v>
+        <v>27.450663375296</v>
       </c>
       <c r="S10">
-        <v>0.0004064516050343008</v>
+        <v>0.0007090555301283294</v>
       </c>
       <c r="T10">
-        <v>0.0004064516050343008</v>
+        <v>0.0007090555301283292</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.00705666666667</v>
+        <v>19.96051866666667</v>
       </c>
       <c r="H11">
-        <v>48.02117</v>
+        <v>59.881556</v>
       </c>
       <c r="I11">
-        <v>0.05075975073168155</v>
+        <v>0.06425903442584988</v>
       </c>
       <c r="J11">
-        <v>0.05075975073168155</v>
+        <v>0.06425903442584986</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>35.475684</v>
       </c>
       <c r="O11">
-        <v>0.851329675722</v>
+        <v>0.8539197603380489</v>
       </c>
       <c r="P11">
-        <v>0.8513296757219999</v>
+        <v>0.8539197603380488</v>
       </c>
       <c r="Q11">
-        <v>189.2870946922534</v>
+        <v>236.0376842315894</v>
       </c>
       <c r="R11">
-        <v>1703.58385223028</v>
+        <v>2124.339158084304</v>
       </c>
       <c r="S11">
-        <v>0.04321328213013201</v>
+        <v>0.05487205927647616</v>
       </c>
       <c r="T11">
-        <v>0.043213282130132</v>
+        <v>0.05487205927647614</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.00705666666667</v>
+        <v>19.96051866666667</v>
       </c>
       <c r="H12">
-        <v>48.02117</v>
+        <v>59.881556</v>
       </c>
       <c r="I12">
-        <v>0.05075975073168155</v>
+        <v>0.06425903442584988</v>
       </c>
       <c r="J12">
-        <v>0.05075975073168155</v>
+        <v>0.06425903442584986</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.915914</v>
+        <v>1.712948333333333</v>
       </c>
       <c r="N12">
-        <v>5.747742000000001</v>
+        <v>5.138845</v>
       </c>
       <c r="O12">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="P12">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="Q12">
-        <v>30.66814396646</v>
+        <v>34.19133718253556</v>
       </c>
       <c r="R12">
-        <v>276.01329569814</v>
+        <v>307.72203464282</v>
       </c>
       <c r="S12">
-        <v>0.007001381471805002</v>
+        <v>0.007948515029410656</v>
       </c>
       <c r="T12">
-        <v>0.007001381471805002</v>
+        <v>0.007948515029410652</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.00705666666667</v>
+        <v>19.96051866666667</v>
       </c>
       <c r="H13">
-        <v>48.02117</v>
+        <v>59.881556</v>
       </c>
       <c r="I13">
-        <v>0.05075975073168155</v>
+        <v>0.06425903442584988</v>
       </c>
       <c r="J13">
-        <v>0.05075975073168155</v>
+        <v>0.06425903442584986</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.03793733333333333</v>
+        <v>0.1571906666666667</v>
       </c>
       <c r="N13">
-        <v>0.113812</v>
+        <v>0.471572</v>
       </c>
       <c r="O13">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="P13">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="Q13">
-        <v>0.6072650444488888</v>
+        <v>3.137607236225778</v>
       </c>
       <c r="R13">
-        <v>5.465385400039999</v>
+        <v>28.238465126032</v>
       </c>
       <c r="S13">
-        <v>0.0001386355247102377</v>
+        <v>0.0007294045898347278</v>
       </c>
       <c r="T13">
-        <v>0.0001386355247102377</v>
+        <v>0.0007294045898347275</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.030993</v>
+        <v>63.12224</v>
       </c>
       <c r="H14">
-        <v>180.092979</v>
+        <v>189.36672</v>
       </c>
       <c r="I14">
-        <v>0.1903634318482028</v>
+        <v>0.2032098594697551</v>
       </c>
       <c r="J14">
-        <v>0.1903634318482028</v>
+        <v>0.2032098594697551</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1112246666666667</v>
+        <v>0.1528053333333333</v>
       </c>
       <c r="N14">
-        <v>0.333674</v>
+        <v>0.458416</v>
       </c>
       <c r="O14">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="P14">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="Q14">
-        <v>6.676927186094</v>
+        <v>9.645414923946666</v>
       </c>
       <c r="R14">
-        <v>60.092344674846</v>
+        <v>86.80873431552</v>
       </c>
       <c r="S14">
-        <v>0.001524308557454111</v>
+        <v>0.002242285087552883</v>
       </c>
       <c r="T14">
-        <v>0.001524308557454111</v>
+        <v>0.002242285087552883</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.030993</v>
+        <v>63.12224</v>
       </c>
       <c r="H15">
-        <v>180.092979</v>
+        <v>189.36672</v>
       </c>
       <c r="I15">
-        <v>0.1903634318482028</v>
+        <v>0.2032098594697551</v>
       </c>
       <c r="J15">
-        <v>0.1903634318482028</v>
+        <v>0.2032098594697551</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>35.475684</v>
       </c>
       <c r="O15">
-        <v>0.851329675722</v>
+        <v>0.8539197603380489</v>
       </c>
       <c r="P15">
-        <v>0.8513296757219999</v>
+        <v>0.8539197603380488</v>
       </c>
       <c r="Q15">
-        <v>709.880179291404</v>
+        <v>746.43487987072</v>
       </c>
       <c r="R15">
-        <v>6388.921613622637</v>
+        <v>6717.91391883648</v>
       </c>
       <c r="S15">
-        <v>0.1620620387046575</v>
+        <v>0.1735249144967419</v>
       </c>
       <c r="T15">
-        <v>0.1620620387046575</v>
+        <v>0.1735249144967419</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.030993</v>
+        <v>63.12224</v>
       </c>
       <c r="H16">
-        <v>180.092979</v>
+        <v>189.36672</v>
       </c>
       <c r="I16">
-        <v>0.1903634318482028</v>
+        <v>0.2032098594697551</v>
       </c>
       <c r="J16">
-        <v>0.1903634318482028</v>
+        <v>0.2032098594697551</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.915914</v>
+        <v>1.712948333333333</v>
       </c>
       <c r="N16">
-        <v>5.747742000000001</v>
+        <v>5.138845</v>
       </c>
       <c r="O16">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="P16">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="Q16">
-        <v>115.014219922602</v>
+        <v>108.1251358042667</v>
       </c>
       <c r="R16">
-        <v>1035.127979303418</v>
+        <v>973.1262222383999</v>
       </c>
       <c r="S16">
-        <v>0.02625716213021814</v>
+        <v>0.02513602385332471</v>
       </c>
       <c r="T16">
-        <v>0.02625716213021814</v>
+        <v>0.0251360238533247</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>60.030993</v>
+        <v>63.12224</v>
       </c>
       <c r="H17">
-        <v>180.092979</v>
+        <v>189.36672</v>
       </c>
       <c r="I17">
-        <v>0.1903634318482028</v>
+        <v>0.2032098594697551</v>
       </c>
       <c r="J17">
-        <v>0.1903634318482028</v>
+        <v>0.2032098594697551</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.03793733333333333</v>
+        <v>0.1571906666666667</v>
       </c>
       <c r="N17">
-        <v>0.113812</v>
+        <v>0.471572</v>
       </c>
       <c r="O17">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="P17">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="Q17">
-        <v>2.277415791772</v>
+        <v>9.922226987093334</v>
       </c>
       <c r="R17">
-        <v>20.496742125948</v>
+        <v>89.30004288383999</v>
       </c>
       <c r="S17">
-        <v>0.0005199224558729996</v>
+        <v>0.002306636032135633</v>
       </c>
       <c r="T17">
-        <v>0.0005199224558729995</v>
+        <v>0.002306636032135633</v>
       </c>
     </row>
   </sheetData>
